--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H2">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I2">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J2">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>403.013009625511</v>
+        <v>468.9378645014036</v>
       </c>
       <c r="R2">
-        <v>403.013009625511</v>
+        <v>4220.440780512633</v>
       </c>
       <c r="S2">
-        <v>0.003020691364993629</v>
+        <v>0.003413243188298396</v>
       </c>
       <c r="T2">
-        <v>0.003020691364993629</v>
+        <v>0.003413243188298395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H3">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I3">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J3">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>1954.093787291748</v>
+        <v>2108.235500215794</v>
       </c>
       <c r="R3">
-        <v>1954.093787291748</v>
+        <v>18974.11950194215</v>
       </c>
       <c r="S3">
-        <v>0.01464646075605553</v>
+        <v>0.01534514699104423</v>
       </c>
       <c r="T3">
-        <v>0.01464646075605553</v>
+        <v>0.01534514699104423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H4">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I4">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J4">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>2162.84732982058</v>
+        <v>2327.817274597508</v>
       </c>
       <c r="R4">
-        <v>2162.84732982058</v>
+        <v>20950.35547137757</v>
       </c>
       <c r="S4">
-        <v>0.01621112494373182</v>
+        <v>0.01694340990052318</v>
       </c>
       <c r="T4">
-        <v>0.01621112494373182</v>
+        <v>0.01694340990052318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H5">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I5">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J5">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>1862.254759667517</v>
+        <v>2073.672378806387</v>
       </c>
       <c r="R5">
-        <v>1862.254759667517</v>
+        <v>18663.05140925748</v>
       </c>
       <c r="S5">
-        <v>0.01395810243737072</v>
+        <v>0.01509357349347132</v>
       </c>
       <c r="T5">
-        <v>0.01395810243737072</v>
+        <v>0.01509357349347132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H6">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I6">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J6">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>313.8741341331335</v>
+        <v>371.2775619454208</v>
       </c>
       <c r="R6">
-        <v>313.8741341331335</v>
+        <v>3341.498057508787</v>
       </c>
       <c r="S6">
-        <v>0.002352571415875186</v>
+        <v>0.002702406235900044</v>
       </c>
       <c r="T6">
-        <v>0.002352571415875186</v>
+        <v>0.002702406235900044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J7">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>7436.917830691258</v>
+        <v>8075.397985397728</v>
       </c>
       <c r="R7">
-        <v>7436.917830691258</v>
+        <v>72678.58186857955</v>
       </c>
       <c r="S7">
-        <v>0.0557417079270242</v>
+        <v>0.05877814365825194</v>
       </c>
       <c r="T7">
-        <v>0.0557417079270242</v>
+        <v>0.05877814365825192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J8">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>36059.46850960688</v>
+        <v>36305.10990893898</v>
       </c>
       <c r="R8">
-        <v>36059.46850960688</v>
+        <v>326745.9891804508</v>
       </c>
       <c r="S8">
-        <v>0.2702754565031147</v>
+        <v>0.2642528541150458</v>
       </c>
       <c r="T8">
-        <v>0.2702754565031147</v>
+        <v>0.2642528541150458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J9">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>39911.65914755984</v>
+        <v>40086.44290144004</v>
       </c>
       <c r="R9">
-        <v>39911.65914755984</v>
+        <v>360777.9861129604</v>
       </c>
       <c r="S9">
-        <v>0.2991486658498465</v>
+        <v>0.2917759228547928</v>
       </c>
       <c r="T9">
-        <v>0.2991486658498465</v>
+        <v>0.2917759228547928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J10">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>34364.73586877564</v>
+        <v>35709.91173423977</v>
       </c>
       <c r="R10">
-        <v>34364.73586877564</v>
+        <v>321389.2056081579</v>
       </c>
       <c r="S10">
-        <v>0.257572977595824</v>
+        <v>0.2599206040041708</v>
       </c>
       <c r="T10">
-        <v>0.257572977595824</v>
+        <v>0.2599206040041708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J11">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>5792.011892858061</v>
+        <v>6393.627605536334</v>
       </c>
       <c r="R11">
-        <v>5792.011892858061</v>
+        <v>57542.64844982701</v>
       </c>
       <c r="S11">
-        <v>0.04341269361739543</v>
+        <v>0.04653709483732285</v>
       </c>
       <c r="T11">
-        <v>0.04341269361739543</v>
+        <v>0.04653709483732285</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H12">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I12">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J12">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>1.062696992857562</v>
+        <v>1.200945604887</v>
       </c>
       <c r="R12">
-        <v>1.062696992857562</v>
+        <v>10.808510443983</v>
       </c>
       <c r="S12">
-        <v>7.965201006569027E-06</v>
+        <v>8.741284753697215E-06</v>
       </c>
       <c r="T12">
-        <v>7.965201006569027E-06</v>
+        <v>8.741284753697211E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H13">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I13">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J13">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>5.152711058747752</v>
+        <v>5.399171936654999</v>
       </c>
       <c r="R13">
-        <v>5.152711058747752</v>
+        <v>48.59254742989499</v>
       </c>
       <c r="S13">
-        <v>3.862096118418022E-05</v>
+        <v>3.92987818435898E-05</v>
       </c>
       <c r="T13">
-        <v>3.862096118418022E-05</v>
+        <v>3.92987818435898E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H14">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I14">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J14">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>5.703169124853098</v>
+        <v>5.96151886323</v>
       </c>
       <c r="R14">
-        <v>5.703169124853098</v>
+        <v>53.65366976907</v>
       </c>
       <c r="S14">
-        <v>4.274679307387676E-05</v>
+        <v>4.339191861477692E-05</v>
       </c>
       <c r="T14">
-        <v>4.274679307387676E-05</v>
+        <v>4.339191861477692E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H15">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I15">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J15">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>4.91054255263942</v>
+        <v>5.310656097159</v>
       </c>
       <c r="R15">
-        <v>4.91054255263942</v>
+        <v>47.795904874431</v>
       </c>
       <c r="S15">
-        <v>3.680584281875925E-05</v>
+        <v>3.865450440496268E-05</v>
       </c>
       <c r="T15">
-        <v>3.680584281875925E-05</v>
+        <v>3.865450440496268E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H16">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I16">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J16">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>0.8276484642245105</v>
+        <v>0.950838458493</v>
       </c>
       <c r="R16">
-        <v>0.8276484642245105</v>
+        <v>8.557546126437</v>
       </c>
       <c r="S16">
-        <v>6.203448795502508E-06</v>
+        <v>6.92083778535155E-06</v>
       </c>
       <c r="T16">
-        <v>6.203448795502508E-06</v>
+        <v>6.920837785351549E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H17">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I17">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J17">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>3.741210737385954</v>
+        <v>4.121124626183666</v>
       </c>
       <c r="R17">
-        <v>3.741210737385954</v>
+        <v>37.09012163565299</v>
       </c>
       <c r="S17">
-        <v>2.804138501519935E-05</v>
+        <v>2.999629934640961E-05</v>
       </c>
       <c r="T17">
-        <v>2.804138501519935E-05</v>
+        <v>2.99962993464096E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H18">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I18">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J18">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>18.14005127444476</v>
+        <v>18.52761718649388</v>
       </c>
       <c r="R18">
-        <v>18.14005127444476</v>
+        <v>166.7485546784449</v>
       </c>
       <c r="S18">
-        <v>0.000135964584111501</v>
+        <v>0.0001348563806517084</v>
       </c>
       <c r="T18">
-        <v>0.000135964584111501</v>
+        <v>0.0001348563806517084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H19">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I19">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J19">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>20.0779316309671</v>
+        <v>20.45734802370778</v>
       </c>
       <c r="R19">
-        <v>20.0779316309671</v>
+        <v>184.11613221337</v>
       </c>
       <c r="S19">
-        <v>0.0001504895208245298</v>
+        <v>0.0001489022514034185</v>
       </c>
       <c r="T19">
-        <v>0.0001504895208245298</v>
+        <v>0.0001489022514034185</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H20">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I20">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J20">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>17.28750024494294</v>
+        <v>18.22386920284677</v>
       </c>
       <c r="R20">
-        <v>17.28750024494294</v>
+        <v>164.014822825621</v>
       </c>
       <c r="S20">
-        <v>0.0001295744838628127</v>
+        <v>0.0001326454998194574</v>
       </c>
       <c r="T20">
-        <v>0.0001295744838628127</v>
+        <v>0.0001326454998194574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H21">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I21">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J21">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>2.91372549461308</v>
+        <v>3.262865337840778</v>
       </c>
       <c r="R21">
-        <v>2.91372549461308</v>
+        <v>29.365788040567</v>
       </c>
       <c r="S21">
-        <v>2.183915960856461E-05</v>
+        <v>2.374931463587676E-05</v>
       </c>
       <c r="T21">
-        <v>2.183915960856461E-05</v>
+        <v>2.374931463587675E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H22">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I22">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J22">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>185.1802482586142</v>
+        <v>215.8995697982813</v>
       </c>
       <c r="R22">
-        <v>185.1802482586142</v>
+        <v>1943.096128184532</v>
       </c>
       <c r="S22">
-        <v>0.001387975979738108</v>
+        <v>0.001571461363551998</v>
       </c>
       <c r="T22">
-        <v>0.001387975979738108</v>
+        <v>0.001571461363551998</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H23">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I23">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J23">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>897.8855868388707</v>
+        <v>970.6342182753976</v>
       </c>
       <c r="R23">
-        <v>897.8855868388707</v>
+        <v>8735.707964478579</v>
       </c>
       <c r="S23">
-        <v>0.006729895001247441</v>
+        <v>0.007064924555368087</v>
       </c>
       <c r="T23">
-        <v>0.006729895001247441</v>
+        <v>0.007064924555368087</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H24">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I24">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J24">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>993.8056487402854</v>
+        <v>1071.729937374476</v>
       </c>
       <c r="R24">
-        <v>993.8056487402854</v>
+        <v>9645.569436370281</v>
       </c>
       <c r="S24">
-        <v>0.007448841774167986</v>
+        <v>0.007800766765397221</v>
       </c>
       <c r="T24">
-        <v>0.007448841774167986</v>
+        <v>0.007800766765397221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H25">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I25">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J25">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>855.6865175058786</v>
+        <v>954.7213146519915</v>
       </c>
       <c r="R25">
-        <v>855.6865175058786</v>
+        <v>8592.491831867923</v>
       </c>
       <c r="S25">
-        <v>0.006413601578205378</v>
+        <v>0.00694909980754912</v>
       </c>
       <c r="T25">
-        <v>0.006413601578205378</v>
+        <v>0.00694909980754912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H26">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I26">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J26">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>144.2218704918254</v>
+        <v>170.9366463401276</v>
       </c>
       <c r="R26">
-        <v>144.2218704918254</v>
+        <v>1538.429817061148</v>
       </c>
       <c r="S26">
-        <v>0.001080981875107958</v>
+        <v>0.00124419115605297</v>
       </c>
       <c r="T26">
-        <v>0.001080981875107958</v>
+        <v>0.00124419115605297</v>
       </c>
     </row>
   </sheetData>
